--- a/testdb/barclays.xlsx
+++ b/testdb/barclays.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utsav\Desktop\repos\kdbNotes\testdb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF82397E-DA37-43CE-A742-A2408CB3661E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3805DF31-F3DE-4020-9E8D-F38CE45DDFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="74">
   <si>
     <t>Title</t>
   </si>
@@ -239,13 +239,16 @@
   </si>
   <si>
     <t>Array, Backtracking</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +267,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -305,10 +316,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -331,8 +343,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -636,10 +650,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,7 +667,7 @@
     <col min="9" max="9" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,7 +696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -698,7 +712,7 @@
       <c r="E2" s="4">
         <v>0.4741262401560753</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
@@ -710,8 +724,11 @@
       <c r="I2" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -740,7 +757,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -769,7 +786,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -798,7 +815,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -827,7 +844,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -856,7 +873,7 @@
         <v>71.099999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -885,7 +902,7 @@
         <v>71.099999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -914,7 +931,7 @@
         <v>71.099999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -943,7 +960,7 @@
         <v>71.099999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -972,7 +989,7 @@
         <v>71.099999999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -1001,7 +1018,7 @@
         <v>71.099999999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1030,7 +1047,7 @@
         <v>61.3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -1059,7 +1076,7 @@
         <v>61.3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -1088,7 +1105,7 @@
         <v>61.3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -1234,6 +1251,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{75D1711B-2C4F-435A-87A9-2FA74C9BD69E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>